--- a/code/06_GHG/refbyhand_assumptions.xlsx
+++ b/code/06_GHG/refbyhand_assumptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gina\Documents\_git-it\PFI_CanWeReduceN2\code\06_GHG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A711F9F4-8B65-4231-8F31-001235B29FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC851C3-D1F8-42A6-B1B2-998FA3189738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{902352C1-6CF1-477C-8EBE-8377E4AE662A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{902352C1-6CF1-477C-8EBE-8377E4AE662A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Assumptions for PFI GHG calculations</t>
   </si>
@@ -66,6 +66,60 @@
   </si>
   <si>
     <t>ghg from fuel</t>
+  </si>
+  <si>
+    <t>n2o direct</t>
+  </si>
+  <si>
+    <t>fraction of dm not harvested</t>
+  </si>
+  <si>
+    <t>frac</t>
+  </si>
+  <si>
+    <t>kg of n per kg dm</t>
+  </si>
+  <si>
+    <t>kg roots per kg dm harvested</t>
+  </si>
+  <si>
+    <t>kg n per kg root dm</t>
+  </si>
+  <si>
+    <t>kg n-n2o emitted per kg applied/residue n</t>
+  </si>
+  <si>
+    <t>n2o indirect</t>
+  </si>
+  <si>
+    <t>kg n volatized per kg synthetic n, urea</t>
+  </si>
+  <si>
+    <t>kg n volatized per kg synthetic n, ammonium</t>
+  </si>
+  <si>
+    <t>kg n volatized per kg synthetic n, nitrate</t>
+  </si>
+  <si>
+    <t>kg n volatized per kg synthetic n, ammonium-nitrate</t>
+  </si>
+  <si>
+    <t>kg n volatized per kg organic n, organic</t>
+  </si>
+  <si>
+    <t>kg n-n2o per kg n volatalized</t>
+  </si>
+  <si>
+    <t>kg n leached per kg n</t>
+  </si>
+  <si>
+    <t>kg n-n2o per kg n leached</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
 </sst>
 </file>
@@ -81,24 +135,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF586E75"/>
-      <name val="DejaVu Sans"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDF6E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -124,9 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,61 +492,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37CABA8-FE63-4502-B20D-FA07B170AB98}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0.4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>0.15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>0.08</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0.01</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>0.21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>0.24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
